--- a/data/trans_orig/ED_ADU-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/ED_ADU-Provincia-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>43.72699321221398</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47.95827759159214</v>
+        <v>47.95827759159215</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>43.55836337894679</v>
@@ -681,7 +681,7 @@
         <v>45.9471733723876</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>49.38650711799815</v>
+        <v>49.38650711799816</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>42.60207741994778</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>39.6688113455111</v>
+        <v>39.67116016807414</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>41.47536489824808</v>
+        <v>41.42777223007209</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>41.78523170824085</v>
+        <v>41.5855900858293</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45.54593109847955</v>
+        <v>45.73003689676933</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>41.47370285359242</v>
+        <v>41.53897121569495</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>43.23230676011445</v>
+        <v>43.20249376465637</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>43.83000358603201</v>
+        <v>43.78494548097081</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>47.47358366530457</v>
+        <v>47.4186268485097</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>40.97355419886323</v>
+        <v>41.14152234264252</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>42.80327251233928</v>
+        <v>43.03905389845154</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43.31718773963819</v>
+        <v>43.36024834813884</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>47.0253211596928</v>
+        <v>47.1391210084144</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>43.87599983605764</v>
+        <v>43.77274998940941</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>45.65284906318729</v>
+        <v>45.57130215407896</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45.58887430341788</v>
+        <v>45.79965170089305</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>49.95348248047753</v>
+        <v>50.28195983377376</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>45.91305394342212</v>
+        <v>45.74094547606603</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>47.6855865507294</v>
+        <v>47.55638210665501</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>48.08113373042706</v>
+        <v>48.13154318753929</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>51.17088278594822</v>
+        <v>51.2007975670057</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>44.04025709562254</v>
+        <v>44.07378024702321</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>45.87977214867826</v>
+        <v>46.04103394999992</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>46.32516955244289</v>
+        <v>46.36841703505685</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>49.96609595040595</v>
+        <v>50.01923944179001</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>42.04649014857431</v>
+        <v>42.14716546487826</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>43.13942340505933</v>
+        <v>43.18745565925683</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>44.44032590283383</v>
+        <v>44.32491223141814</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>44.55554795131177</v>
+        <v>44.64293197062712</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>43.77937834973413</v>
+        <v>43.96325332078354</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>45.46080840832076</v>
+        <v>45.6711271260046</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>46.73546935034959</v>
+        <v>46.8232162511508</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>49.57491949656028</v>
+        <v>49.59033024808956</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>43.44836050556018</v>
+        <v>43.3216922350143</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>44.74135917731744</v>
+        <v>44.91696299644889</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>45.99437383454762</v>
+        <v>46.01131194949534</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>47.65003104262548</v>
+        <v>47.70836934685547</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>45.10751754904364</v>
+        <v>45.34807033042874</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>46.38057298946655</v>
+        <v>46.39738909675659</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>47.43549481546032</v>
+        <v>47.62437040886324</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>48.69576373200814</v>
+        <v>48.89799906074936</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>47.20310110917347</v>
+        <v>47.14916285102042</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>48.87979570470166</v>
+        <v>48.98344156541025</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>49.97676277100136</v>
+        <v>49.95443990274509</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>52.84647025069042</v>
+        <v>52.69305675348284</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>45.71065393111848</v>
+        <v>45.6123083582535</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>47.13628028947481</v>
+        <v>47.27098481301779</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>48.38815541625999</v>
+        <v>48.2314341098031</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>50.36693780055916</v>
+        <v>50.32683262197449</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>48.36384662897751</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>49.77176999545555</v>
+        <v>49.77176999545554</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>41.46944305196467</v>
+        <v>41.64758922109249</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>42.97230986568167</v>
+        <v>43.00547543023822</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>45.430704176586</v>
+        <v>45.71930900945554</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>47.08746268467392</v>
+        <v>47.42610110030724</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>45.76445446231509</v>
+        <v>46.04266354056478</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>45.34457431595416</v>
+        <v>45.60950149844459</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>47.02595974252417</v>
+        <v>47.03503991950063</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>48.35992437302043</v>
+        <v>48.19447718709527</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>44.42889564563774</v>
+        <v>44.39866330048738</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>45.06023536438022</v>
+        <v>44.87529818840488</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>46.98499272367468</v>
+        <v>46.96522061646351</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>48.4248179675526</v>
+        <v>48.24976776125164</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>45.51218379058901</v>
+        <v>45.60873079584681</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>47.05532368135478</v>
+        <v>47.19436612156149</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>49.32214383411815</v>
+        <v>49.55173820355565</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>51.22740755745983</v>
+        <v>51.48794736416573</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>50.01482553086478</v>
+        <v>50.19574890294714</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>49.77469259790122</v>
+        <v>50.02848667196167</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>51.28227122083335</v>
+        <v>51.28170136113472</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>52.05904656645811</v>
+        <v>52.0490280891656</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>47.28240014156224</v>
+        <v>47.13174200902859</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>47.96460717081792</v>
+        <v>47.94258902642788</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>49.79721648659888</v>
+        <v>49.79551792945472</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>51.17772173701947</v>
+        <v>51.07178361408539</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>49.35947981338022</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>50.51484239863598</v>
+        <v>50.51484239863599</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>44.00108304980152</v>
@@ -1101,7 +1101,7 @@
         <v>47.74664585411696</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>50.2176623412673</v>
+        <v>50.21766234126729</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>40.73028035505019</v>
+        <v>40.91214204024339</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>43.16877703537266</v>
+        <v>43.52267467113138</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>44.05288452967211</v>
+        <v>44.29959059585673</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>47.03755604621545</v>
+        <v>47.02408962089955</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>43.46410329497596</v>
+        <v>43.71735393151229</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>45.17388127811628</v>
+        <v>45.55517272348289</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>47.16372004551879</v>
+        <v>47.62599278482557</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>48.319993875745</v>
+        <v>48.33551836885474</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>42.75041449347989</v>
+        <v>42.73217825942793</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>45.09123097769196</v>
+        <v>45.00884295638291</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>46.43561350195681</v>
+        <v>46.35113293812294</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>48.51807630285636</v>
+        <v>48.38939932889361</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>44.35326719380699</v>
+        <v>44.31925394016943</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>47.23223774439693</v>
+        <v>47.45583872672196</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>47.81484002126236</v>
+        <v>48.04241301400156</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>52.37351673279362</v>
+        <v>52.34699069522138</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>47.34493170807108</v>
+        <v>47.39302586778894</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>49.31158363925383</v>
+        <v>49.52088778265561</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>51.31546614927732</v>
+        <v>51.62627324176928</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>52.56236989247095</v>
+        <v>52.4747156871673</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>45.43518369353386</v>
+        <v>45.28457032281197</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>47.86016105596667</v>
+        <v>47.71972339080143</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>49.3334545734261</v>
+        <v>49.20938051557789</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>51.79194752128051</v>
+        <v>51.82011233947765</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>47.23959415114197</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48.25552433483506</v>
+        <v>48.25552433483505</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>44.65157809069864</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>40.61659973065111</v>
+        <v>40.84543587956663</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>41.98006353096623</v>
+        <v>41.98153602034987</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>44.90247483106296</v>
+        <v>45.08936521570749</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>46.02848481098297</v>
+        <v>45.90544118874188</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>41.81193687875582</v>
+        <v>41.9333444674407</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>44.44052654197011</v>
+        <v>44.76783159764135</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>48.22218554339032</v>
+        <v>48.08712758340942</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>49.62601275420748</v>
+        <v>49.51900546534826</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>42.08252284997969</v>
+        <v>42.14691651836485</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>43.93863423288364</v>
+        <v>44.2052878540209</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>47.29656539344113</v>
+        <v>47.34757926877997</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>48.64759173017398</v>
+        <v>48.58182165932624</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>45.53241581011987</v>
+        <v>45.63715926316197</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>47.08350940374627</v>
+        <v>46.79522180087997</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>49.51430443526291</v>
+        <v>49.54744577554155</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>50.42572371762613</v>
+        <v>50.38826503214266</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>47.60492697188628</v>
+        <v>47.55058698802082</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>49.60987177712398</v>
+        <v>49.60634570389752</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>53.44006075973692</v>
+        <v>53.31255439191316</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>53.79760471065971</v>
+        <v>53.81764347450378</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>45.5090490845494</v>
+        <v>45.81444541707288</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>47.32745370658697</v>
+        <v>47.74011573080379</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>50.76870717576961</v>
+        <v>50.74644474645692</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>51.73814339541135</v>
+        <v>51.72749862115778</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>49.02994127726741</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>49.75605585698256</v>
+        <v>49.75605585698255</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>45.6280988836651</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>41.82668697607428</v>
+        <v>42.0268309276122</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>43.12963246140154</v>
+        <v>43.31210834056995</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>44.67846359403525</v>
+        <v>44.97530255757413</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>47.12186557853664</v>
+        <v>47.31384343323793</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>44.83749537775892</v>
+        <v>44.93561131954836</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>46.3755827002372</v>
+        <v>46.60230372095538</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>46.63974226686624</v>
+        <v>46.68388284856488</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>47.41941331569889</v>
+        <v>47.72694448160678</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>44.03545209398908</v>
+        <v>43.99216816036849</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>45.39535720266552</v>
+        <v>45.40314225221572</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>46.31619273935147</v>
+        <v>46.47542209067126</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>48.17883198293457</v>
+        <v>48.03397049005665</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>46.17309041986682</v>
+        <v>46.54079883409955</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>47.68726947773437</v>
+        <v>48.02262075974014</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>49.10665475719566</v>
+        <v>49.56454603377105</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>51.1011567167653</v>
+        <v>51.31673970072262</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>49.61784571882123</v>
+        <v>49.64785369749912</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>51.12909669529748</v>
+        <v>51.1968046044357</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>51.2661468123102</v>
+        <v>51.31179997846414</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>51.54571293329328</v>
+        <v>51.90458138576363</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>47.1657716770959</v>
+        <v>47.15481749587441</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>48.76197272606855</v>
+        <v>48.78000998989639</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>49.58718235262975</v>
+        <v>49.61176528573752</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>51.04315329944189</v>
+        <v>51.05563901709926</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>45.50205325342364</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>49.15479278551266</v>
+        <v>49.15479278551267</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>45.98617953659715</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>42.79545170701357</v>
+        <v>42.72939466790555</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>43.57832481390854</v>
+        <v>43.48047601995766</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>44.19663952076484</v>
+        <v>44.16202981734215</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>47.26840442486188</v>
+        <v>47.47870194085721</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>44.66836334229757</v>
+        <v>44.51841773716133</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>45.71037075448596</v>
+        <v>45.63615602938813</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>45.93844637843618</v>
+        <v>45.89310018913052</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>47.98457607907247</v>
+        <v>48.02810812970361</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>44.08976663925606</v>
+        <v>44.02626294033749</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>44.95749103385679</v>
+        <v>45.04338451697797</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>45.39867539840748</v>
+        <v>45.51433798808041</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>48.03218116421334</v>
+        <v>48.14754910759824</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>45.71682756191572</v>
+        <v>45.51140641396364</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>46.45543663010979</v>
+        <v>46.40603665562773</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>46.99563983920302</v>
+        <v>46.83135352533557</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>50.91095851937526</v>
+        <v>50.81626383623203</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>47.41227812232533</v>
+        <v>47.28840006989648</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>48.56758216855113</v>
+        <v>48.52083210810515</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>48.87792379039832</v>
+        <v>48.84977514364666</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>50.81288673218177</v>
+        <v>50.89685642255156</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>46.0630018607628</v>
+        <v>46.17132803328381</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>47.03354952391354</v>
+        <v>47.06182166781426</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>47.43007541455922</v>
+        <v>47.53336634755936</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>50.36122823800168</v>
+        <v>50.39222329227072</v>
       </c>
     </row>
     <row r="25">
@@ -1645,7 +1645,7 @@
         <v>47.04639162351188</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>49.26429357817742</v>
+        <v>49.26429357817743</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>42.44297216899535</v>
+        <v>42.29596513563619</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>43.31132783924415</v>
+        <v>43.32709534063076</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>44.9124234102587</v>
+        <v>44.85119081274635</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>46.83109261954654</v>
+        <v>46.71780251043005</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>44.31532905523927</v>
+        <v>44.34148062458787</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>45.35903423725553</v>
+        <v>45.30402562511195</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>46.74609321087947</v>
+        <v>46.64399839794616</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>49.02936200720554</v>
+        <v>48.96554175857513</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>43.72234115912643</v>
+        <v>43.68720294439581</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>44.69095764933013</v>
+        <v>44.659919103716</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>46.17145407192323</v>
+        <v>46.11209156314983</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>48.27848789383765</v>
+        <v>48.31969685409127</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>45.03099501684179</v>
+        <v>44.97076070105691</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>45.89778145569797</v>
+        <v>45.82695534251196</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>47.39244677741616</v>
+        <v>47.41765530014634</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>49.59682783398367</v>
+        <v>49.38442716605171</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>46.95570282119305</v>
+        <v>46.87423953087038</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>47.99445007367196</v>
+        <v>47.92422772491396</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>49.46662692520249</v>
+        <v>49.25803986160894</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>51.69601644679534</v>
+        <v>51.73140906536025</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>45.57936788994162</v>
+        <v>45.55995120680375</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>46.44811567909503</v>
+        <v>46.41386209619338</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>47.97806883788263</v>
+        <v>47.89009491196109</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>50.14497974635076</v>
+        <v>50.22336867454115</v>
       </c>
     </row>
     <row r="28">
@@ -1781,7 +1781,7 @@
         <v>47.16037214781937</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>49.40230813333894</v>
+        <v>49.40230813333893</v>
       </c>
     </row>
     <row r="29">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>42.78194473705052</v>
+        <v>42.82472237840304</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>44.12898017912811</v>
+        <v>44.13310010836286</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>45.39887020075681</v>
+        <v>45.43503875518611</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>47.78291926427102</v>
+        <v>47.76563970905872</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>45.14446792638172</v>
+        <v>45.15223438989366</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>46.42486276402001</v>
+        <v>46.38840177725088</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>47.65755789825478</v>
+        <v>47.56219227452861</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>49.61829104665178</v>
+        <v>49.64845504322599</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>44.13917326168215</v>
+        <v>44.23417865194725</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>45.46958108763615</v>
+        <v>45.5263303964002</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>46.73985039564035</v>
+        <v>46.73403502535284</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>48.95236289352686</v>
+        <v>48.94453933627693</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>44.01355725993805</v>
+        <v>44.0380482463224</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>45.33882846829081</v>
+        <v>45.38326129264631</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>46.6062244410598</v>
+        <v>46.61347668948154</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>49.25669570766238</v>
+        <v>49.25596645807244</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>46.39259333682042</v>
+        <v>46.44170202555343</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>47.6758819525401</v>
+        <v>47.69672832872812</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>48.91776328895158</v>
+        <v>48.91361832385488</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>50.8178009956272</v>
+        <v>50.8861498850961</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>45.03694791913428</v>
+        <v>45.05509725517645</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>46.35113148136972</v>
+        <v>46.39557063886974</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>47.62531071151127</v>
+        <v>47.59169784040002</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>49.86962761903977</v>
+        <v>49.85200113576888</v>
       </c>
     </row>
     <row r="31">
